--- a/dataset/materials.xlsx
+++ b/dataset/materials.xlsx
@@ -477,16 +477,16 @@
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>7000</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,16 +503,16 @@
         <v>150000</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>250000</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,16 +529,16 @@
         <v>20000</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <v>35000</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,16 +555,16 @@
         <v>30000</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F5">
         <v>50000</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -581,16 +581,16 @@
         <v>15000</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>30000</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -607,16 +607,16 @@
         <v>100000</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F7">
         <v>160000</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -633,16 +633,16 @@
         <v>80000</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="F8">
         <v>130000</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -659,16 +659,16 @@
         <v>90000</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="F9">
         <v>150000</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/materials.xlsx
+++ b/dataset/materials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Cửa hàng D</t>
   </si>
   <si>
-    <t>Bơ</t>
-  </si>
-  <si>
-    <t>Sốt mayo</t>
+    <t>Tương ớt</t>
   </si>
   <si>
     <t>Siêu thị E</t>
   </si>
   <si>
-    <t>Tương ớt</t>
+    <t>Tương cà</t>
+  </si>
+  <si>
+    <t>Siêu Thị</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>7000</v>
@@ -503,7 +503,7 @@
         <v>150000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>250000</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,7 +529,7 @@
         <v>20000</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>35000</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,7 +555,7 @@
         <v>30000</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="F5">
         <v>50000</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -581,7 +581,7 @@
         <v>15000</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -607,7 +607,7 @@
         <v>100000</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7">
         <v>160000</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -627,74 +627,48 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="E8">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="F9">
-        <v>150000</v>
+        <v>35000</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>70000</v>
-      </c>
-      <c r="E10">
-        <v>4.8</v>
-      </c>
-      <c r="F10">
-        <v>120000</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
